--- a/mex_shots.xlsx
+++ b/mex_shots.xlsx
@@ -68717,16 +68717,16 @@
         <v>0.0</v>
       </c>
       <c r="AE442" t="n">
-        <v>467.0</v>
+        <v>488.0</v>
       </c>
       <c r="AF442" t="n">
         <v>21.0</v>
       </c>
       <c r="AG442" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="AH442" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="AI442" t="n">
         <v>1.1</v>
@@ -68738,28 +68738,28 @@
         <v>0.8</v>
       </c>
       <c r="AL442" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="AM442" t="n">
         <v>0.0</v>
       </c>
       <c r="AN442" t="n">
-        <v>267.0</v>
+        <v>282.0</v>
       </c>
       <c r="AO442" t="n">
-        <v>337.0</v>
+        <v>353.0</v>
       </c>
       <c r="AP442" t="n">
-        <v>79.2</v>
+        <v>79.9</v>
       </c>
       <c r="AQ442" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="AR442" t="n">
-        <v>241.0</v>
+        <v>255.0</v>
       </c>
       <c r="AS442" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="AT442" t="n">
         <v>12.0</v>
@@ -87879,10 +87879,10 @@
         <v>0.0</v>
       </c>
       <c r="AE576" t="n">
-        <v>621.0</v>
+        <v>646.0</v>
       </c>
       <c r="AF576" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="AG576" t="n">
         <v>5.0</v>
@@ -87897,28 +87897,28 @@
         <v>1.0</v>
       </c>
       <c r="AK576" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AL576" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="AM576" t="n">
         <v>0.0</v>
       </c>
       <c r="AN576" t="n">
-        <v>430.0</v>
+        <v>450.0</v>
       </c>
       <c r="AO576" t="n">
-        <v>511.0</v>
+        <v>534.0</v>
       </c>
       <c r="AP576" t="n">
-        <v>84.1</v>
+        <v>84.3</v>
       </c>
       <c r="AQ576" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="AR576" t="n">
-        <v>439.0</v>
+        <v>456.0</v>
       </c>
       <c r="AS576" t="n">
         <v>20.0</v>
@@ -95744,10 +95744,10 @@
         <v>1.0</v>
       </c>
       <c r="AE631" t="n">
-        <v>413.0</v>
+        <v>467.0</v>
       </c>
       <c r="AF631" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="AG631" t="n">
         <v>12.0</v>
@@ -95762,37 +95762,37 @@
         <v>1.7</v>
       </c>
       <c r="AK631" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AL631" t="n">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="AM631" t="n">
         <v>0.0</v>
       </c>
       <c r="AN631" t="n">
-        <v>206.0</v>
+        <v>244.0</v>
       </c>
       <c r="AO631" t="n">
-        <v>297.0</v>
+        <v>346.0</v>
       </c>
       <c r="AP631" t="n">
-        <v>69.4</v>
+        <v>70.5</v>
       </c>
       <c r="AQ631" t="n">
-        <v>24.0</v>
+        <v>31.0</v>
       </c>
       <c r="AR631" t="n">
-        <v>210.0</v>
+        <v>232.0</v>
       </c>
       <c r="AS631" t="n">
         <v>9.0</v>
       </c>
       <c r="AT631" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="AU631" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="632">
@@ -99536,7 +99536,7 @@
         <v>0.0</v>
       </c>
       <c r="H658" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="I658" t="s">
         <v>942</v>
@@ -99551,13 +99551,13 @@
         <v>912</v>
       </c>
       <c r="M658" t="s">
-        <v>925</v>
+        <v>937</v>
       </c>
       <c r="N658" t="n">
         <v>2.0</v>
       </c>
       <c r="O658" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="P658" t="s">
         <v>1484</v>
@@ -99581,7 +99581,7 @@
         <v>990.0</v>
       </c>
       <c r="W658" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="X658" t="n">
         <v>0.0</v>
@@ -99593,67 +99593,67 @@
         <v>0.0</v>
       </c>
       <c r="AA658" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AB658" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC658" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD658" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE658" t="n">
+        <v>537.0</v>
+      </c>
+      <c r="AF658" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AG658" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AH658" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AI658" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AJ658" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AK658" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AL658" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AM658" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN658" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="AO658" t="n">
+        <v>447.0</v>
+      </c>
+      <c r="AP658" t="n">
+        <v>79.6</v>
+      </c>
+      <c r="AQ658" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="AR658" t="n">
+        <v>383.0</v>
+      </c>
+      <c r="AS658" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AT658" t="n">
         <v>16.0</v>
       </c>
-      <c r="AB658" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AC658" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AD658" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE658" t="n">
-        <v>528.0</v>
-      </c>
-      <c r="AF658" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AG658" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AH658" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AI658" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AJ658" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AK658" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AL658" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="AM658" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AN658" t="n">
-        <v>354.0</v>
-      </c>
-      <c r="AO658" t="n">
-        <v>449.0</v>
-      </c>
-      <c r="AP658" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="AQ658" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="AR658" t="n">
-        <v>324.0</v>
-      </c>
-      <c r="AS658" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="AT658" t="n">
-        <v>23.0</v>
-      </c>
       <c r="AU658" t="n">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="659">
@@ -99679,7 +99679,7 @@
         <v>0.0</v>
       </c>
       <c r="H659" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="I659" t="s">
         <v>942</v>
@@ -99694,13 +99694,13 @@
         <v>912</v>
       </c>
       <c r="M659" t="s">
-        <v>925</v>
+        <v>937</v>
       </c>
       <c r="N659" t="n">
         <v>2.0</v>
       </c>
       <c r="O659" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="P659" t="s">
         <v>1484</v>
@@ -99736,11 +99736,11 @@
         <v>0.0</v>
       </c>
       <c r="AA659" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AB659" t="n">
         <v>8.0</v>
       </c>
-      <c r="AB659" t="n">
-        <v>3.0</v>
-      </c>
       <c r="AC659" t="n">
         <v>2.0</v>
       </c>
@@ -99748,52 +99748,52 @@
         <v>0.0</v>
       </c>
       <c r="AE659" t="n">
-        <v>493.0</v>
+        <v>640.0</v>
       </c>
       <c r="AF659" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="AG659" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="AH659" t="n">
         <v>12.0</v>
       </c>
       <c r="AI659" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="AJ659" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="AK659" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="AL659" t="n">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
       <c r="AM659" t="n">
         <v>4.0</v>
       </c>
       <c r="AN659" t="n">
-        <v>293.0</v>
+        <v>452.0</v>
       </c>
       <c r="AO659" t="n">
-        <v>389.0</v>
+        <v>532.0</v>
       </c>
       <c r="AP659" t="n">
-        <v>75.3</v>
+        <v>85.0</v>
       </c>
       <c r="AQ659" t="n">
-        <v>17.0</v>
+        <v>29.0</v>
       </c>
       <c r="AR659" t="n">
-        <v>242.0</v>
+        <v>392.0</v>
       </c>
       <c r="AS659" t="n">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="AT659" t="n">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
       <c r="AU659" t="n">
         <v>4.0</v>
@@ -100674,13 +100674,13 @@
         <v>912</v>
       </c>
       <c r="F666" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
       <c r="G666" t="n">
         <v>2.0</v>
       </c>
       <c r="H666" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="I666" t="s">
         <v>1219</v>
@@ -100701,7 +100701,7 @@
         <v>2.0</v>
       </c>
       <c r="O666" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="P666" t="s">
         <v>1487</v>
@@ -100737,64 +100737,64 @@
         <v>0.0</v>
       </c>
       <c r="AA666" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB666" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC666" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD666" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE666" t="n">
+        <v>499.0</v>
+      </c>
+      <c r="AF666" t="n">
         <v>16.0</v>
       </c>
-      <c r="AB666" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AC666" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AD666" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE666" t="n">
-        <v>640.0</v>
-      </c>
-      <c r="AF666" t="n">
-        <v>14.0</v>
-      </c>
       <c r="AG666" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="AH666" t="n">
         <v>12.0</v>
       </c>
       <c r="AI666" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="AJ666" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="AK666" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="AL666" t="n">
-        <v>26.0</v>
+        <v>13.0</v>
       </c>
       <c r="AM666" t="n">
         <v>4.0</v>
       </c>
       <c r="AN666" t="n">
-        <v>452.0</v>
+        <v>295.0</v>
       </c>
       <c r="AO666" t="n">
-        <v>532.0</v>
+        <v>391.0</v>
       </c>
       <c r="AP666" t="n">
-        <v>85.0</v>
+        <v>75.4</v>
       </c>
       <c r="AQ666" t="n">
-        <v>29.0</v>
+        <v>17.0</v>
       </c>
       <c r="AR666" t="n">
-        <v>392.0</v>
+        <v>248.0</v>
       </c>
       <c r="AS666" t="n">
-        <v>21.0</v>
+        <v>16.0</v>
       </c>
       <c r="AT666" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="AU666" t="n">
         <v>4.0</v>
@@ -100817,13 +100817,13 @@
         <v>912</v>
       </c>
       <c r="F667" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
       <c r="G667" t="n">
         <v>2.0</v>
       </c>
       <c r="H667" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="I667" t="s">
         <v>1219</v>
@@ -100844,7 +100844,7 @@
         <v>2.0</v>
       </c>
       <c r="O667" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="P667" t="s">
         <v>1487</v>
@@ -100868,7 +100868,7 @@
         <v>980.0</v>
       </c>
       <c r="W667" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="X667" t="n">
         <v>2.0</v>
@@ -100880,10 +100880,10 @@
         <v>0.0</v>
       </c>
       <c r="AA667" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="AB667" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="AC667" t="n">
         <v>5.0</v>
@@ -100892,55 +100892,55 @@
         <v>1.0</v>
       </c>
       <c r="AE667" t="n">
-        <v>434.0</v>
+        <v>638.0</v>
       </c>
       <c r="AF667" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AG667" t="n">
         <v>10.0</v>
       </c>
-      <c r="AG667" t="n">
-        <v>9.0</v>
-      </c>
       <c r="AH667" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="AI667" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AJ667" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AK667" t="n">
         <v>0.7</v>
       </c>
-      <c r="AJ667" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AK667" t="n">
-        <v>0.5</v>
-      </c>
       <c r="AL667" t="n">
-        <v>20.0</v>
+        <v>29.0</v>
       </c>
       <c r="AM667" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="AN667" t="n">
-        <v>286.0</v>
+        <v>447.0</v>
       </c>
       <c r="AO667" t="n">
-        <v>356.0</v>
+        <v>549.0</v>
       </c>
       <c r="AP667" t="n">
-        <v>80.3</v>
+        <v>81.4</v>
       </c>
       <c r="AQ667" t="n">
-        <v>37.0</v>
+        <v>49.0</v>
       </c>
       <c r="AR667" t="n">
-        <v>311.0</v>
+        <v>401.0</v>
       </c>
       <c r="AS667" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="AT667" t="n">
-        <v>13.0</v>
+        <v>23.0</v>
       </c>
       <c r="AU667" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="668">
